--- a/UseCaseIScenarij/RegistracijaMenadžera.xlsx
+++ b/UseCaseIScenarij/RegistracijaMenadžera.xlsx
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +113,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -125,8 +140,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +450,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,76 +470,99 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UseCaseIScenarij/RegistracijaMenadžera.xlsx
+++ b/UseCaseIScenarij/RegistracijaMenadžera.xlsx
@@ -34,9 +34,6 @@
     <t>Menadžer</t>
   </si>
   <si>
-    <t>Baza podataka</t>
-  </si>
-  <si>
     <t>1. Unos podataka</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>5. Potvrđivanje zahtjeva za registraciju</t>
+  </si>
+  <si>
+    <t>Analiza sadržaja</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,20 +481,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -508,14 +508,14 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -529,21 +529,21 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -551,12 +551,12 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
